--- a/KetQuaDaoTao.xlsx
+++ b/KetQuaDaoTao.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\VCS-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
   <si>
     <t>KẾT QUẢ ĐÁNH GIÁ QUÁ TRÌNH ĐÀO TẠO</t>
   </si>
@@ -858,6 +858,44 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -871,7 +909,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -915,43 +952,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1174,8 @@
   </sheetPr>
   <dimension ref="A1:AD1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1193,18 +1193,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1227,22 +1227,22 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="86" t="s">
+      <c r="A2" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="86" t="s">
+      <c r="B2" s="55"/>
+      <c r="C2" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1265,16 +1265,16 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1297,25 +1297,25 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="90" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="77"/>
-      <c r="F4" s="91" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="91" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="77"/>
+      <c r="I4" s="59"/>
       <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="35" t="s">
         <v>7</v>
       </c>
@@ -1430,10 +1430,10 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="62">
+      <c r="A7" s="79">
         <v>1</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="78" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="50" t="s">
@@ -1476,8 +1476,8 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="62"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="79"/>
+      <c r="B8" s="78"/>
       <c r="C8" s="29" t="s">
         <v>40</v>
       </c>
@@ -1518,8 +1518,8 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" s="62"/>
-      <c r="B9" s="61"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="29" t="s">
         <v>41</v>
       </c>
@@ -1531,8 +1531,12 @@
       <c r="G9" s="10">
         <v>45904</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="12">
+        <v>45725</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1556,8 +1560,8 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="99" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
-      <c r="B10" s="61"/>
+      <c r="A10" s="79"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
@@ -1594,8 +1598,8 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="61"/>
+      <c r="A11" s="79"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="29" t="s">
         <v>43</v>
       </c>
@@ -1632,8 +1636,8 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="78"/>
       <c r="C12" s="29" t="s">
         <v>44</v>
       </c>
@@ -1672,8 +1676,8 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="62"/>
-      <c r="B13" s="61"/>
+      <c r="A13" s="79"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="29" t="s">
         <v>45</v>
       </c>
@@ -1710,8 +1714,8 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
-      <c r="B14" s="61"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="78"/>
       <c r="C14" s="29" t="s">
         <v>46</v>
       </c>
@@ -1748,10 +1752,10 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" s="66">
+      <c r="A15" s="83">
         <v>2</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="80" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="29" t="s">
@@ -1790,8 +1794,8 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" ht="132" x14ac:dyDescent="0.2">
-      <c r="A16" s="67"/>
-      <c r="B16" s="64"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="30" t="s">
         <v>49</v>
       </c>
@@ -1828,8 +1832,8 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="68"/>
-      <c r="B17" s="65"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="29" t="s">
         <v>50</v>
       </c>
@@ -1866,10 +1870,10 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="72">
+      <c r="A18" s="89">
         <v>3</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="86" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -1908,8 +1912,8 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="67"/>
-      <c r="B19" s="70"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="29" t="s">
         <v>53</v>
       </c>
@@ -1948,8 +1952,8 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="67"/>
-      <c r="B20" s="71"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="29" t="s">
         <v>54</v>
       </c>
@@ -1986,10 +1990,10 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A21" s="62">
+      <c r="A21" s="79">
         <v>4</v>
       </c>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="90" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -2030,8 +2034,8 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="62"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="29" t="s">
         <v>57</v>
       </c>
@@ -2070,8 +2074,8 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A23" s="62"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="79"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="29" t="s">
         <v>58</v>
       </c>
@@ -2108,8 +2112,8 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="62"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="79"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="29" t="s">
         <v>59</v>
       </c>
@@ -2146,10 +2150,10 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A25" s="62">
+      <c r="A25" s="79">
         <v>5</v>
       </c>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="91" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="29" t="s">
@@ -2188,8 +2192,8 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A26" s="62"/>
-      <c r="B26" s="74"/>
+      <c r="A26" s="79"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="29" t="s">
         <v>63</v>
       </c>
@@ -2226,8 +2230,8 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A27" s="62"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="91"/>
       <c r="C27" s="29" t="s">
         <v>62</v>
       </c>
@@ -2264,8 +2268,8 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="28" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A28" s="62"/>
-      <c r="B28" s="74"/>
+      <c r="A28" s="79"/>
+      <c r="B28" s="91"/>
       <c r="C28" s="29" t="s">
         <v>64</v>
       </c>
@@ -2302,8 +2306,8 @@
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="62"/>
-      <c r="B29" s="74"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="91"/>
       <c r="C29" s="29" t="s">
         <v>65</v>
       </c>
@@ -2342,8 +2346,8 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A30" s="62"/>
-      <c r="B30" s="74"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="91"/>
       <c r="C30" s="29" t="s">
         <v>66</v>
       </c>
@@ -2763,7 +2767,7 @@
     </row>
     <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="54"/>
+      <c r="B43" s="72"/>
       <c r="C43" s="6"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -2795,7 +2799,7 @@
     </row>
     <row r="44" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="55"/>
+      <c r="B44" s="73"/>
       <c r="C44" s="7"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2827,7 +2831,7 @@
     </row>
     <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="56"/>
+      <c r="B45" s="74"/>
       <c r="C45" s="7"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3018,10 +3022,10 @@
       <c r="AD50" s="1"/>
     </row>
     <row r="51" spans="1:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="57">
+      <c r="A51" s="75">
         <v>4</v>
       </c>
-      <c r="B51" s="60" t="s">
+      <c r="B51" s="77" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -3056,8 +3060,8 @@
       <c r="AD51" s="1"/>
     </row>
     <row r="52" spans="1:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-      <c r="B52" s="55"/>
+      <c r="A52" s="76"/>
+      <c r="B52" s="73"/>
       <c r="C52" s="19" t="s">
         <v>18</v>
       </c>
@@ -3090,8 +3094,8 @@
       <c r="AD52" s="1"/>
     </row>
     <row r="53" spans="1:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="59"/>
-      <c r="B53" s="56"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="74"/>
       <c r="C53" s="23" t="s">
         <v>19</v>
       </c>
@@ -3128,14 +3132,14 @@
       <c r="B54" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="75"/>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="76"/>
-      <c r="G54" s="76"/>
-      <c r="H54" s="76"/>
-      <c r="I54" s="76"/>
-      <c r="J54" s="77"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="63"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="63"/>
+      <c r="J54" s="59"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3158,16 +3162,16 @@
       <c r="AD54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="78"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="76"/>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="76"/>
-      <c r="G55" s="76"/>
-      <c r="H55" s="76"/>
-      <c r="I55" s="76"/>
-      <c r="J55" s="77"/>
+      <c r="A55" s="64"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="63"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="63"/>
+      <c r="J55" s="59"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3196,14 +3200,14 @@
       <c r="B56" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="79"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="81"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="67"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3226,7 +3230,7 @@
       <c r="AD56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="82">
+      <c r="A57" s="68">
         <v>5</v>
       </c>
       <c r="B57" s="33" t="s">
@@ -3262,7 +3266,7 @@
       <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="83"/>
+      <c r="A58" s="69"/>
       <c r="B58" s="33" t="s">
         <v>24</v>
       </c>
@@ -3296,7 +3300,7 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="83"/>
+      <c r="A59" s="69"/>
       <c r="B59" s="33" t="s">
         <v>25</v>
       </c>
@@ -3330,7 +3334,7 @@
       <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="83"/>
+      <c r="A60" s="69"/>
       <c r="B60" s="33" t="s">
         <v>26</v>
       </c>
@@ -3364,7 +3368,7 @@
       <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="83"/>
+      <c r="A61" s="69"/>
       <c r="B61" s="33" t="s">
         <v>27</v>
       </c>
@@ -3398,7 +3402,7 @@
       <c r="AD61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="83"/>
+      <c r="A62" s="69"/>
       <c r="B62" s="33" t="s">
         <v>28</v>
       </c>
@@ -3432,7 +3436,7 @@
       <c r="AD62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="83"/>
+      <c r="A63" s="69"/>
       <c r="B63" s="33" t="s">
         <v>29</v>
       </c>
@@ -3466,7 +3470,7 @@
       <c r="AD63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="83"/>
+      <c r="A64" s="69"/>
       <c r="B64" s="33" t="s">
         <v>30</v>
       </c>
@@ -3500,7 +3504,7 @@
       <c r="AD64" s="1"/>
     </row>
     <row r="65" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="83"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="33" t="s">
         <v>31</v>
       </c>
@@ -3534,7 +3538,7 @@
       <c r="AD65" s="1"/>
     </row>
     <row r="66" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="83"/>
+      <c r="A66" s="69"/>
       <c r="B66" s="33" t="s">
         <v>32</v>
       </c>
@@ -3568,7 +3572,7 @@
       <c r="AD66" s="1"/>
     </row>
     <row r="67" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="83"/>
+      <c r="A67" s="69"/>
       <c r="B67" s="33" t="s">
         <v>33</v>
       </c>
@@ -3602,7 +3606,7 @@
       <c r="AD67" s="1"/>
     </row>
     <row r="68" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="83"/>
+      <c r="A68" s="69"/>
       <c r="B68" s="33" t="s">
         <v>34</v>
       </c>
@@ -3636,7 +3640,7 @@
       <c r="AD68" s="1"/>
     </row>
     <row r="69" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="84"/>
+      <c r="A69" s="70"/>
       <c r="B69" s="33" t="s">
         <v>35</v>
       </c>
@@ -3674,14 +3678,14 @@
       <c r="B70" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="85"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="81"/>
+      <c r="C70" s="71"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="67"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -34585,20 +34589,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="C70:J70"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
@@ -34612,6 +34602,20 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="A25:A30"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="C70:J70"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/KetQuaDaoTao.xlsx
+++ b/KetQuaDaoTao.xlsx
@@ -858,44 +858,6 @@
     <xf numFmtId="166" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -909,6 +871,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -952,6 +915,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1174,8 +1174,8 @@
   </sheetPr>
   <dimension ref="A1:AD1035"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1193,18 +1193,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -1227,22 +1227,22 @@
       <c r="AD1" s="1"/>
     </row>
     <row r="2" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="54" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="86" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
@@ -1265,16 +1265,16 @@
       <c r="AD2" s="1"/>
     </row>
     <row r="3" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -1297,25 +1297,25 @@
       <c r="AD3" s="1"/>
     </row>
     <row r="4" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="61" t="s">
+      <c r="E4" s="77"/>
+      <c r="F4" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="61" t="s">
+      <c r="G4" s="77"/>
+      <c r="H4" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="59"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1341,7 +1341,7 @@
       <c r="AD4" s="1"/>
     </row>
     <row r="5" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="57"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="35" t="s">
         <v>7</v>
       </c>
@@ -1430,10 +1430,10 @@
       <c r="AD6" s="1"/>
     </row>
     <row r="7" spans="1:30" ht="115.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="79">
+      <c r="A7" s="62">
         <v>1</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="61" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="50" t="s">
@@ -1476,8 +1476,8 @@
       <c r="AD7" s="1"/>
     </row>
     <row r="8" spans="1:30" ht="148.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="79"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="29" t="s">
         <v>40</v>
       </c>
@@ -1518,8 +1518,8 @@
       <c r="AD8" s="1"/>
     </row>
     <row r="9" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A9" s="79"/>
-      <c r="B9" s="78"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="29" t="s">
         <v>41</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>98</v>
       </c>
       <c r="I9" s="12">
-        <v>45725</v>
+        <v>45903</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="1"/>
@@ -1560,8 +1560,8 @@
       <c r="AD9" s="1"/>
     </row>
     <row r="10" spans="1:30" ht="99" x14ac:dyDescent="0.2">
-      <c r="A10" s="79"/>
-      <c r="B10" s="78"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="30" t="s">
         <v>42</v>
       </c>
@@ -1573,7 +1573,9 @@
       <c r="G10" s="10">
         <v>45911</v>
       </c>
-      <c r="H10" s="10"/>
+      <c r="H10" s="10">
+        <v>45904</v>
+      </c>
       <c r="I10" s="10"/>
       <c r="J10" s="12"/>
       <c r="K10" s="13"/>
@@ -1598,8 +1600,8 @@
       <c r="AD10" s="1"/>
     </row>
     <row r="11" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="79"/>
-      <c r="B11" s="78"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="29" t="s">
         <v>43</v>
       </c>
@@ -1636,8 +1638,8 @@
       <c r="AD11" s="1"/>
     </row>
     <row r="12" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A12" s="79"/>
-      <c r="B12" s="78"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="29" t="s">
         <v>44</v>
       </c>
@@ -1676,8 +1678,8 @@
       <c r="AD12" s="1"/>
     </row>
     <row r="13" spans="1:30" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="79"/>
-      <c r="B13" s="78"/>
+      <c r="A13" s="62"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="29" t="s">
         <v>45</v>
       </c>
@@ -1714,8 +1716,8 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A14" s="79"/>
-      <c r="B14" s="78"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="29" t="s">
         <v>46</v>
       </c>
@@ -1752,10 +1754,10 @@
       <c r="AD14" s="1"/>
     </row>
     <row r="15" spans="1:30" ht="66" x14ac:dyDescent="0.2">
-      <c r="A15" s="83">
+      <c r="A15" s="66">
         <v>2</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="63" t="s">
         <v>47</v>
       </c>
       <c r="C15" s="29" t="s">
@@ -1794,8 +1796,8 @@
       <c r="AD15" s="1"/>
     </row>
     <row r="16" spans="1:30" ht="132" x14ac:dyDescent="0.2">
-      <c r="A16" s="84"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="30" t="s">
         <v>49</v>
       </c>
@@ -1832,8 +1834,8 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="85"/>
-      <c r="B17" s="82"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="29" t="s">
         <v>50</v>
       </c>
@@ -1870,10 +1872,10 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" ht="82.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="89">
+      <c r="A18" s="72">
         <v>3</v>
       </c>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="69" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="29" t="s">
@@ -1912,8 +1914,8 @@
       <c r="AD18" s="1"/>
     </row>
     <row r="19" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="87"/>
+      <c r="A19" s="67"/>
+      <c r="B19" s="70"/>
       <c r="C19" s="29" t="s">
         <v>53</v>
       </c>
@@ -1952,8 +1954,8 @@
       <c r="AD19" s="1"/>
     </row>
     <row r="20" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="84"/>
-      <c r="B20" s="88"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="71"/>
       <c r="C20" s="29" t="s">
         <v>54</v>
       </c>
@@ -1990,10 +1992,10 @@
       <c r="AD20" s="1"/>
     </row>
     <row r="21" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A21" s="79">
+      <c r="A21" s="62">
         <v>4</v>
       </c>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="73" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="29" t="s">
@@ -2034,8 +2036,8 @@
       <c r="AD21" s="1"/>
     </row>
     <row r="22" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A22" s="79"/>
-      <c r="B22" s="90"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="29" t="s">
         <v>57</v>
       </c>
@@ -2074,8 +2076,8 @@
       <c r="AD22" s="1"/>
     </row>
     <row r="23" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A23" s="79"/>
-      <c r="B23" s="90"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="29" t="s">
         <v>58</v>
       </c>
@@ -2112,8 +2114,8 @@
       <c r="AD23" s="1"/>
     </row>
     <row r="24" spans="1:30" ht="49.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="79"/>
-      <c r="B24" s="90"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="29" t="s">
         <v>59</v>
       </c>
@@ -2150,10 +2152,10 @@
       <c r="AD24" s="1"/>
     </row>
     <row r="25" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A25" s="79">
+      <c r="A25" s="62">
         <v>5</v>
       </c>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="74" t="s">
         <v>60</v>
       </c>
       <c r="C25" s="29" t="s">
@@ -2192,8 +2194,8 @@
       <c r="AD25" s="1"/>
     </row>
     <row r="26" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A26" s="79"/>
-      <c r="B26" s="91"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="74"/>
       <c r="C26" s="29" t="s">
         <v>63</v>
       </c>
@@ -2230,8 +2232,8 @@
       <c r="AD26" s="1"/>
     </row>
     <row r="27" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A27" s="79"/>
-      <c r="B27" s="91"/>
+      <c r="A27" s="62"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="29" t="s">
         <v>62</v>
       </c>
@@ -2268,8 +2270,8 @@
       <c r="AD27" s="1"/>
     </row>
     <row r="28" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A28" s="79"/>
-      <c r="B28" s="91"/>
+      <c r="A28" s="62"/>
+      <c r="B28" s="74"/>
       <c r="C28" s="29" t="s">
         <v>64</v>
       </c>
@@ -2306,8 +2308,8 @@
       <c r="AD28" s="1"/>
     </row>
     <row r="29" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A29" s="79"/>
-      <c r="B29" s="91"/>
+      <c r="A29" s="62"/>
+      <c r="B29" s="74"/>
       <c r="C29" s="29" t="s">
         <v>65</v>
       </c>
@@ -2346,8 +2348,8 @@
       <c r="AD29" s="1"/>
     </row>
     <row r="30" spans="1:30" ht="33" x14ac:dyDescent="0.2">
-      <c r="A30" s="79"/>
-      <c r="B30" s="91"/>
+      <c r="A30" s="62"/>
+      <c r="B30" s="74"/>
       <c r="C30" s="29" t="s">
         <v>66</v>
       </c>
@@ -2767,7 +2769,7 @@
     </row>
     <row r="43" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="72"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="6"/>
       <c r="D43" s="16"/>
       <c r="E43" s="16"/>
@@ -2799,7 +2801,7 @@
     </row>
     <row r="44" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
-      <c r="B44" s="73"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="7"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -2831,7 +2833,7 @@
     </row>
     <row r="45" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>
-      <c r="B45" s="74"/>
+      <c r="B45" s="56"/>
       <c r="C45" s="7"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -3022,10 +3024,10 @@
       <c r="AD50" s="1"/>
     </row>
     <row r="51" spans="1:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="75">
+      <c r="A51" s="57">
         <v>4</v>
       </c>
-      <c r="B51" s="77" t="s">
+      <c r="B51" s="60" t="s">
         <v>16</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -3060,8 +3062,8 @@
       <c r="AD51" s="1"/>
     </row>
     <row r="52" spans="1:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="76"/>
-      <c r="B52" s="73"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="19" t="s">
         <v>18</v>
       </c>
@@ -3094,8 +3096,8 @@
       <c r="AD52" s="1"/>
     </row>
     <row r="53" spans="1:30" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="57"/>
-      <c r="B53" s="74"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="56"/>
       <c r="C53" s="23" t="s">
         <v>19</v>
       </c>
@@ -3132,14 +3134,14 @@
       <c r="B54" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="62"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="63"/>
-      <c r="H54" s="63"/>
-      <c r="I54" s="63"/>
-      <c r="J54" s="59"/>
+      <c r="C54" s="75"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="77"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
@@ -3162,16 +3164,16 @@
       <c r="AD54" s="1"/>
     </row>
     <row r="55" spans="1:30" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="64"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
-      <c r="F55" s="63"/>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="59"/>
+      <c r="A55" s="78"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="76"/>
+      <c r="D55" s="76"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
+      <c r="J55" s="77"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -3200,14 +3202,14 @@
       <c r="B56" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="65"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="67"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
+      <c r="G56" s="80"/>
+      <c r="H56" s="80"/>
+      <c r="I56" s="80"/>
+      <c r="J56" s="81"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
@@ -3230,7 +3232,7 @@
       <c r="AD56" s="1"/>
     </row>
     <row r="57" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="68">
+      <c r="A57" s="82">
         <v>5</v>
       </c>
       <c r="B57" s="33" t="s">
@@ -3266,7 +3268,7 @@
       <c r="AD57" s="1"/>
     </row>
     <row r="58" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="69"/>
+      <c r="A58" s="83"/>
       <c r="B58" s="33" t="s">
         <v>24</v>
       </c>
@@ -3300,7 +3302,7 @@
       <c r="AD58" s="1"/>
     </row>
     <row r="59" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="69"/>
+      <c r="A59" s="83"/>
       <c r="B59" s="33" t="s">
         <v>25</v>
       </c>
@@ -3334,7 +3336,7 @@
       <c r="AD59" s="1"/>
     </row>
     <row r="60" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="69"/>
+      <c r="A60" s="83"/>
       <c r="B60" s="33" t="s">
         <v>26</v>
       </c>
@@ -3368,7 +3370,7 @@
       <c r="AD60" s="1"/>
     </row>
     <row r="61" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="69"/>
+      <c r="A61" s="83"/>
       <c r="B61" s="33" t="s">
         <v>27</v>
       </c>
@@ -3402,7 +3404,7 @@
       <c r="AD61" s="1"/>
     </row>
     <row r="62" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="69"/>
+      <c r="A62" s="83"/>
       <c r="B62" s="33" t="s">
         <v>28</v>
       </c>
@@ -3436,7 +3438,7 @@
       <c r="AD62" s="1"/>
     </row>
     <row r="63" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="69"/>
+      <c r="A63" s="83"/>
       <c r="B63" s="33" t="s">
         <v>29</v>
       </c>
@@ -3470,7 +3472,7 @@
       <c r="AD63" s="1"/>
     </row>
     <row r="64" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="69"/>
+      <c r="A64" s="83"/>
       <c r="B64" s="33" t="s">
         <v>30</v>
       </c>
@@ -3504,7 +3506,7 @@
       <c r="AD64" s="1"/>
     </row>
     <row r="65" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="69"/>
+      <c r="A65" s="83"/>
       <c r="B65" s="33" t="s">
         <v>31</v>
       </c>
@@ -3538,7 +3540,7 @@
       <c r="AD65" s="1"/>
     </row>
     <row r="66" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="69"/>
+      <c r="A66" s="83"/>
       <c r="B66" s="33" t="s">
         <v>32</v>
       </c>
@@ -3572,7 +3574,7 @@
       <c r="AD66" s="1"/>
     </row>
     <row r="67" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="69"/>
+      <c r="A67" s="83"/>
       <c r="B67" s="33" t="s">
         <v>33</v>
       </c>
@@ -3606,7 +3608,7 @@
       <c r="AD67" s="1"/>
     </row>
     <row r="68" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A68" s="69"/>
+      <c r="A68" s="83"/>
       <c r="B68" s="33" t="s">
         <v>34</v>
       </c>
@@ -3640,7 +3642,7 @@
       <c r="AD68" s="1"/>
     </row>
     <row r="69" spans="1:30" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A69" s="70"/>
+      <c r="A69" s="84"/>
       <c r="B69" s="33" t="s">
         <v>35</v>
       </c>
@@ -3678,14 +3680,14 @@
       <c r="B70" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="71"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="67"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="80"/>
+      <c r="E70" s="80"/>
+      <c r="F70" s="80"/>
+      <c r="G70" s="80"/>
+      <c r="H70" s="80"/>
+      <c r="I70" s="80"/>
+      <c r="J70" s="81"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
@@ -34589,6 +34591,20 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:J3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C54:J54"/>
+    <mergeCell ref="A55:J55"/>
+    <mergeCell ref="C56:J56"/>
+    <mergeCell ref="A57:A69"/>
+    <mergeCell ref="C70:J70"/>
     <mergeCell ref="B43:B45"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B51:B53"/>
@@ -34602,20 +34618,6 @@
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="B25:B30"/>
     <mergeCell ref="A25:A30"/>
-    <mergeCell ref="C54:J54"/>
-    <mergeCell ref="A55:J55"/>
-    <mergeCell ref="C56:J56"/>
-    <mergeCell ref="A57:A69"/>
-    <mergeCell ref="C70:J70"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:J3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
